--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Col18a1</t>
   </si>
   <si>
     <t>Kdr</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H2">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I2">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J2">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N2">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O2">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P2">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q2">
-        <v>3937.731358614404</v>
+        <v>2523.524575545538</v>
       </c>
       <c r="R2">
-        <v>35439.58222752964</v>
+        <v>22711.72117990984</v>
       </c>
       <c r="S2">
-        <v>0.4178273287825757</v>
+        <v>0.4729514121804306</v>
       </c>
       <c r="T2">
-        <v>0.4178273287825757</v>
+        <v>0.4729514121804307</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H3">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I3">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J3">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N3">
         <v>0.150717</v>
       </c>
       <c r="O3">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P3">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q3">
-        <v>1.419191580424334</v>
+        <v>1.244419159190667</v>
       </c>
       <c r="R3">
-        <v>12.772724223819</v>
+        <v>11.199772432716</v>
       </c>
       <c r="S3">
-        <v>0.0001505884919706854</v>
+        <v>0.0002332253089139727</v>
       </c>
       <c r="T3">
-        <v>0.0001505884919706854</v>
+        <v>0.0002332253089139727</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H4">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I4">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J4">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N4">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O4">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P4">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q4">
-        <v>119.2297105920325</v>
+        <v>85.31356693997866</v>
       </c>
       <c r="R4">
-        <v>1073.067395328293</v>
+        <v>767.822102459808</v>
       </c>
       <c r="S4">
-        <v>0.01265130273023961</v>
+        <v>0.01598921300526264</v>
       </c>
       <c r="T4">
-        <v>0.01265130273023961</v>
+        <v>0.01598921300526265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H5">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I5">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J5">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N5">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O5">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P5">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q5">
-        <v>22.46572635218822</v>
+        <v>1.751080897976444</v>
       </c>
       <c r="R5">
-        <v>202.191537169694</v>
+        <v>15.759728081788</v>
       </c>
       <c r="S5">
-        <v>0.002383807724810897</v>
+        <v>0.0003281823333783465</v>
       </c>
       <c r="T5">
-        <v>0.002383807724810897</v>
+        <v>0.0003281823333783466</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H6">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I6">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J6">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N6">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O6">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P6">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q6">
-        <v>23.38502712652189</v>
+        <v>34.74270795470222</v>
       </c>
       <c r="R6">
-        <v>210.465244138697</v>
+        <v>312.68437159232</v>
       </c>
       <c r="S6">
-        <v>0.00248135348197569</v>
+        <v>0.006511374190440167</v>
       </c>
       <c r="T6">
-        <v>0.002481353481975689</v>
+        <v>0.00651137419044017</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H7">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I7">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J7">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N7">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O7">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P7">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q7">
-        <v>172.2991347702003</v>
+        <v>115.1844073672093</v>
       </c>
       <c r="R7">
-        <v>1550.692212931803</v>
+        <v>1036.659666304884</v>
       </c>
       <c r="S7">
-        <v>0.01828242728521579</v>
+        <v>0.02158751638616828</v>
       </c>
       <c r="T7">
-        <v>0.01828242728521579</v>
+        <v>0.02158751638616829</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>24.205355</v>
       </c>
       <c r="I8">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J8">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N8">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O8">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P8">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q8">
-        <v>1124.698837437367</v>
+        <v>822.0004164490072</v>
       </c>
       <c r="R8">
-        <v>10122.28953693631</v>
+        <v>7398.003748041064</v>
       </c>
       <c r="S8">
-        <v>0.1193402668019184</v>
+        <v>0.154056854266385</v>
       </c>
       <c r="T8">
-        <v>0.1193402668019184</v>
+        <v>0.154056854266385</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>24.205355</v>
       </c>
       <c r="I9">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J9">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N9">
         <v>0.150717</v>
       </c>
       <c r="O9">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P9">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q9">
         <v>0.4053509432816667</v>
       </c>
       <c r="R9">
-        <v>3.648158489535001</v>
+        <v>3.648158489534999</v>
       </c>
       <c r="S9">
-        <v>4.301123830612771E-05</v>
+        <v>7.596965883016598E-05</v>
       </c>
       <c r="T9">
-        <v>4.301123830612771E-05</v>
+        <v>7.596965883016598E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>24.205355</v>
       </c>
       <c r="I10">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J10">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N10">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O10">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P10">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q10">
-        <v>34.05451126001611</v>
+        <v>27.78961942078666</v>
       </c>
       <c r="R10">
-        <v>306.490601340145</v>
+        <v>250.10657478708</v>
       </c>
       <c r="S10">
-        <v>0.003613477958987913</v>
+        <v>0.005208247177928307</v>
       </c>
       <c r="T10">
-        <v>0.003613477958987913</v>
+        <v>0.005208247177928308</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>24.205355</v>
       </c>
       <c r="I11">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J11">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N11">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O11">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P11">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q11">
-        <v>6.416683620434445</v>
+        <v>0.5703884326394444</v>
       </c>
       <c r="R11">
-        <v>57.75015258391001</v>
+        <v>5.133495893755</v>
       </c>
       <c r="S11">
-        <v>0.0006808655879746037</v>
+        <v>0.0001069004904182038</v>
       </c>
       <c r="T11">
-        <v>0.0006808655879746036</v>
+        <v>0.0001069004904182039</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>24.205355</v>
       </c>
       <c r="I12">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J12">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N12">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O12">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P12">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q12">
-        <v>6.679255243022777</v>
+        <v>11.31691788702222</v>
       </c>
       <c r="R12">
-        <v>60.113297187205</v>
+        <v>101.8522609832</v>
       </c>
       <c r="S12">
-        <v>0.0007087267063924925</v>
+        <v>0.00212098283015138</v>
       </c>
       <c r="T12">
-        <v>0.0007087267063924923</v>
+        <v>0.002120982830151381</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>24.205355</v>
       </c>
       <c r="I13">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J13">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N13">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O13">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P13">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q13">
-        <v>49.21225419392167</v>
+        <v>37.51959927071834</v>
       </c>
       <c r="R13">
-        <v>442.910287745295</v>
+        <v>337.676393436465</v>
       </c>
       <c r="S13">
-        <v>0.005221845484261468</v>
+        <v>0.007031810837702651</v>
       </c>
       <c r="T13">
-        <v>0.005221845484261467</v>
+        <v>0.007031810837702652</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H14">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I14">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J14">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N14">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O14">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P14">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q14">
-        <v>8.964375746983109</v>
+        <v>1.545120777944111</v>
       </c>
       <c r="R14">
-        <v>80.67938172284799</v>
+        <v>13.906087001497</v>
       </c>
       <c r="S14">
-        <v>0.0009511977408949592</v>
+        <v>0.0002895819050068157</v>
       </c>
       <c r="T14">
-        <v>0.0009511977408949591</v>
+        <v>0.0002895819050068158</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H15">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I15">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J15">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,28 +1367,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N15">
         <v>0.150717</v>
       </c>
       <c r="O15">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P15">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q15">
-        <v>0.003230836597333333</v>
+        <v>0.0007619414203333333</v>
       </c>
       <c r="R15">
-        <v>0.029077529376</v>
+        <v>0.006857472782999999</v>
       </c>
       <c r="S15">
-        <v>3.428196853103211E-07</v>
+        <v>1.428007772294074E-07</v>
       </c>
       <c r="T15">
-        <v>3.42819685310321E-07</v>
+        <v>1.428007772294074E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H16">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I16">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J16">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N16">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O16">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P16">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q16">
-        <v>0.2714303817635556</v>
+        <v>0.05223637058933333</v>
       </c>
       <c r="R16">
-        <v>2.442873435872</v>
+        <v>0.470127335304</v>
       </c>
       <c r="S16">
-        <v>2.88011093277343E-05</v>
+        <v>9.789984007611539E-06</v>
       </c>
       <c r="T16">
-        <v>2.88011093277343E-05</v>
+        <v>9.789984007611544E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H17">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I17">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J17">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N17">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O17">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P17">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q17">
-        <v>0.05114396948622223</v>
+        <v>0.001072163713222222</v>
       </c>
       <c r="R17">
-        <v>0.460295725376</v>
+        <v>0.009649473419</v>
       </c>
       <c r="S17">
-        <v>5.426817171521109E-06</v>
+        <v>2.009417095323682E-07</v>
       </c>
       <c r="T17">
-        <v>5.426817171521108E-06</v>
+        <v>2.009417095323683E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H18">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I18">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J18">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N18">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O18">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P18">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q18">
-        <v>0.05323678812088888</v>
+        <v>0.02127250135111111</v>
       </c>
       <c r="R18">
-        <v>0.4791310930879999</v>
+        <v>0.19145251216</v>
       </c>
       <c r="S18">
-        <v>5.648883315732852E-06</v>
+        <v>3.986828443088632E-06</v>
       </c>
       <c r="T18">
-        <v>5.64888331573285E-06</v>
+        <v>3.986828443088634E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H19">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I19">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J19">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N19">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O19">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P19">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q19">
-        <v>0.3922446821013333</v>
+        <v>0.07052589177966667</v>
       </c>
       <c r="R19">
-        <v>3.530202138912</v>
+        <v>0.6347330260170001</v>
       </c>
       <c r="S19">
-        <v>4.162055072472998E-05</v>
+        <v>1.321775124986322E-05</v>
       </c>
       <c r="T19">
-        <v>4.162055072472997E-05</v>
+        <v>1.321775124986322E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H20">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I20">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J20">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N20">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O20">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P20">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q20">
-        <v>3587.725102521176</v>
+        <v>1466.492064329543</v>
       </c>
       <c r="R20">
-        <v>32289.52592269059</v>
+        <v>13198.42857896588</v>
       </c>
       <c r="S20">
-        <v>0.3806886401006534</v>
+        <v>0.2748455471752692</v>
       </c>
       <c r="T20">
-        <v>0.3806886401006533</v>
+        <v>0.2748455471752693</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H21">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I21">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J21">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N21">
         <v>0.150717</v>
       </c>
       <c r="O21">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P21">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q21">
-        <v>1.293046374846333</v>
+        <v>0.7231674457769999</v>
       </c>
       <c r="R21">
-        <v>11.637417373617</v>
+        <v>6.508507011992999</v>
       </c>
       <c r="S21">
-        <v>0.0001372033954556375</v>
+        <v>0.0001355338751354178</v>
       </c>
       <c r="T21">
-        <v>0.0001372033954556374</v>
+        <v>0.0001355338751354178</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H22">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I22">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J22">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N22">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O22">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P22">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q22">
-        <v>108.6319473575999</v>
+        <v>49.57814562597599</v>
       </c>
       <c r="R22">
-        <v>977.6875262183989</v>
+        <v>446.203310633784</v>
       </c>
       <c r="S22">
-        <v>0.01152678846046187</v>
+        <v>0.009291787452485326</v>
       </c>
       <c r="T22">
-        <v>0.01152678846046187</v>
+        <v>0.00929178745248533</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H23">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I23">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J23">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N23">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O23">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P23">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q23">
-        <v>20.46885453569356</v>
+        <v>1.017603024661</v>
       </c>
       <c r="R23">
-        <v>184.219690821242</v>
+        <v>9.158427221948999</v>
       </c>
       <c r="S23">
-        <v>0.00217192236722247</v>
+        <v>0.000190716108817151</v>
       </c>
       <c r="T23">
-        <v>0.002171922367222469</v>
+        <v>0.000190716108817151</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H24">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I24">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J24">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N24">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O24">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P24">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q24">
-        <v>21.30644302624122</v>
+        <v>20.18997793904</v>
       </c>
       <c r="R24">
-        <v>191.757987236171</v>
+        <v>181.70980145136</v>
       </c>
       <c r="S24">
-        <v>0.002260797744883506</v>
+        <v>0.003783945149849164</v>
       </c>
       <c r="T24">
-        <v>0.002260797744883505</v>
+        <v>0.003783945149849165</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H25">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I25">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J25">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N25">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O25">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P25">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q25">
-        <v>156.9842822328143</v>
+        <v>66.93694247142301</v>
       </c>
       <c r="R25">
-        <v>1412.858540095329</v>
+        <v>602.4324822428071</v>
       </c>
       <c r="S25">
-        <v>0.01665738907320158</v>
+        <v>0.01254512112768148</v>
       </c>
       <c r="T25">
-        <v>0.01665738907320157</v>
+        <v>0.01254512112768148</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H26">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I26">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J26">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N26">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O26">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P26">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q26">
-        <v>18.56346171075066</v>
+        <v>20.50342229792067</v>
       </c>
       <c r="R26">
-        <v>167.071155396756</v>
+        <v>184.530800681286</v>
       </c>
       <c r="S26">
-        <v>0.001969743721239999</v>
+        <v>0.003842689952102796</v>
       </c>
       <c r="T26">
-        <v>0.001969743721239999</v>
+        <v>0.003842689952102796</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H27">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I27">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J27">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2111,28 +2111,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N27">
         <v>0.150717</v>
       </c>
       <c r="O27">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P27">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q27">
-        <v>0.006690428108</v>
+        <v>0.010110799706</v>
       </c>
       <c r="R27">
-        <v>0.06021385297200001</v>
+        <v>0.090997197354</v>
       </c>
       <c r="S27">
-        <v>7.099122439274664E-07</v>
+        <v>1.894935775766093E-06</v>
       </c>
       <c r="T27">
-        <v>7.099122439274663E-07</v>
+        <v>1.894935775766093E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H28">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I28">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J28">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N28">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O28">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P28">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q28">
-        <v>0.5620790160093333</v>
+        <v>0.6931654669280001</v>
       </c>
       <c r="R28">
-        <v>5.058711144084</v>
+        <v>6.238489202352</v>
       </c>
       <c r="S28">
-        <v>5.964144133655611E-05</v>
+        <v>0.0001299109941845658</v>
       </c>
       <c r="T28">
-        <v>5.96414413365561E-05</v>
+        <v>0.0001299109941845658</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H29">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I29">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J29">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N29">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O29">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P29">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q29">
-        <v>0.1059091169413333</v>
+        <v>0.01422738319133333</v>
       </c>
       <c r="R29">
-        <v>0.9531820524720001</v>
+        <v>0.128046448722</v>
       </c>
       <c r="S29">
-        <v>1.12378726213791E-05</v>
+        <v>2.666453513938366E-06</v>
       </c>
       <c r="T29">
-        <v>1.12378726213791E-05</v>
+        <v>2.666453513938367E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H30">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I30">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J30">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N30">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O30">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P30">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q30">
-        <v>0.1102429333373333</v>
+        <v>0.2822815437866667</v>
       </c>
       <c r="R30">
-        <v>0.9921864000359999</v>
+        <v>2.54053389408</v>
       </c>
       <c r="S30">
-        <v>1.169772799577213E-05</v>
+        <v>5.290436085311939E-05</v>
       </c>
       <c r="T30">
-        <v>1.169772799577213E-05</v>
+        <v>5.29043608531194E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H31">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I31">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J31">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N31">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O31">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P31">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q31">
-        <v>0.8122617059959999</v>
+        <v>0.9358635018940002</v>
       </c>
       <c r="R31">
-        <v>7.310355353964</v>
+        <v>8.422771517046002</v>
       </c>
       <c r="S31">
-        <v>8.618798693471773E-05</v>
+        <v>0.000175396732458294</v>
       </c>
       <c r="T31">
-        <v>8.618798693471771E-05</v>
+        <v>0.000175396732458294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H32">
+        <v>1.217911</v>
+      </c>
+      <c r="I32">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J32">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>101.8783343333333</v>
+      </c>
+      <c r="N32">
+        <v>305.635003</v>
+      </c>
+      <c r="O32">
+        <v>0.9137375742483709</v>
+      </c>
+      <c r="P32">
+        <v>0.913737574248371</v>
+      </c>
+      <c r="Q32">
+        <v>41.35958134874811</v>
+      </c>
+      <c r="R32">
+        <v>372.236232138733</v>
+      </c>
+      <c r="S32">
+        <v>0.007751488769176377</v>
+      </c>
+      <c r="T32">
+        <v>0.007751488769176378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H33">
+        <v>1.217911</v>
+      </c>
+      <c r="I33">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J33">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.050239</v>
+      </c>
+      <c r="N33">
+        <v>0.150717</v>
+      </c>
+      <c r="O33">
+        <v>0.0004505890510780002</v>
+      </c>
+      <c r="P33">
+        <v>0.0004505890510780002</v>
+      </c>
+      <c r="Q33">
+        <v>0.02039554357633333</v>
+      </c>
+      <c r="R33">
+        <v>0.183559892187</v>
+      </c>
+      <c r="S33">
+        <v>3.822471645448137E-06</v>
+      </c>
+      <c r="T33">
+        <v>3.822471645448137E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H34">
+        <v>1.217911</v>
+      </c>
+      <c r="I34">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J34">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>3.444232</v>
+      </c>
+      <c r="N34">
+        <v>10.332696</v>
+      </c>
+      <c r="O34">
+        <v>0.03089100556484967</v>
+      </c>
+      <c r="P34">
+        <v>0.03089100556484967</v>
+      </c>
+      <c r="Q34">
+        <v>1.398256013117333</v>
+      </c>
+      <c r="R34">
+        <v>12.584304118056</v>
+      </c>
+      <c r="S34">
+        <v>0.0002620569509812123</v>
+      </c>
+      <c r="T34">
+        <v>0.0002620569509812123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H35">
+        <v>1.217911</v>
+      </c>
+      <c r="I35">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J35">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.07069366666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.212081</v>
+      </c>
+      <c r="O35">
+        <v>0.0006340451079949399</v>
+      </c>
+      <c r="P35">
+        <v>0.00063404510799494</v>
+      </c>
+      <c r="Q35">
+        <v>0.02869953142122222</v>
+      </c>
+      <c r="R35">
+        <v>0.258295782791</v>
+      </c>
+      <c r="S35">
+        <v>5.378780157767779E-06</v>
+      </c>
+      <c r="T35">
+        <v>5.378780157767779E-06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H36">
+        <v>1.217911</v>
+      </c>
+      <c r="I36">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J36">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.402613333333333</v>
+      </c>
+      <c r="N36">
+        <v>4.20784</v>
+      </c>
+      <c r="O36">
+        <v>0.01257991223742545</v>
+      </c>
+      <c r="P36">
+        <v>0.01257991223742545</v>
+      </c>
+      <c r="Q36">
+        <v>0.5694194024711111</v>
+      </c>
+      <c r="R36">
+        <v>5.124774622239999</v>
+      </c>
+      <c r="S36">
+        <v>0.0001067188776885321</v>
+      </c>
+      <c r="T36">
+        <v>0.0001067188776885321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H37">
+        <v>1.217911</v>
+      </c>
+      <c r="I37">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J37">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.650161000000001</v>
+      </c>
+      <c r="N37">
+        <v>13.950483</v>
+      </c>
+      <c r="O37">
+        <v>0.04170687379028095</v>
+      </c>
+      <c r="P37">
+        <v>0.04170687379028095</v>
+      </c>
+      <c r="Q37">
+        <v>1.887827411223667</v>
+      </c>
+      <c r="R37">
+        <v>16.990446701013</v>
+      </c>
+      <c r="S37">
+        <v>0.0003538109550203777</v>
+      </c>
+      <c r="T37">
+        <v>0.0003538109550203777</v>
       </c>
     </row>
   </sheetData>
